--- a/biology/Zoologie/Coenypha_edwardsi/Coenypha_edwardsi.xlsx
+++ b/biology/Zoologie/Coenypha_edwardsi/Coenypha_edwardsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coenypha edwardsi est une espèce d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coenypha edwardsi est une espèce d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Chili et en Argentine dans la province de Chubut[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Chili et en Argentine dans la province de Chubut,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Machado, Previato, Grismado et Teixeira en 2023 mesure 4,44 mm et la femelle 8,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Machado, Previato, Grismado et Teixeira en 2023 mesure 4,44 mm et la femelle 8,60 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Thomisus edwardsii par Nicolet en 1849. Elle est placée dans le genre Stephanopis par Keyserling en 1880[3] puis dans le genre Coenypha par Simon en 1895[4].
-Thomisus fuliginosus[5], Thomisus lucasii[5] et Coenypha fasciata[6] a été placée en synonymie par Machado, Previato, Grismado et Teixeira en 2023[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Thomisus edwardsii par Nicolet en 1849. Elle est placée dans le genre Stephanopis par Keyserling en 1880 puis dans le genre Coenypha par Simon en 1895.
+Thomisus fuliginosus, Thomisus lucasii et Coenypha fasciata a été placée en synonymie par Machado, Previato, Grismado et Teixeira en 2023.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nicolet, 1849 : « Aracnidos. » Historia física y política de Chile. Zoología, vol. 3, p. 319-543.</t>
         </is>
